--- a/analysis/pre_gemini_data/participant320/Sheet1.xlsx
+++ b/analysis/pre_gemini_data/participant320/Sheet1.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AR9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,222 +422,218 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>aqrg2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>args</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstte</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>constate2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>exteranl4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>loopstate2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methcoall</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methdodec</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methodall7</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>methodcall6</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>methodcall7</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var12</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>var9</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>vars</t>
         </is>
@@ -708,870 +692,846 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Revisit count</t>
+          <t>Respondent ratio (%)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>18</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="O3" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
       <c r="T3" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="U3" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Y3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
       <c r="AA3" t="n">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>100</v>
+      </c>
       <c r="AF3" t="n">
-        <v>59</v>
-      </c>
-      <c r="AG3" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
       <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>100</v>
+      </c>
       <c r="AK3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL3" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
       <c r="AM3" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="AP3" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="AR3" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fixation count</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
         <v>6</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>5</v>
       </c>
-      <c r="O4" t="n">
-        <v>137</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9</v>
-      </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="U4" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="V4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AB4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
       <c r="AF4" t="n">
-        <v>332</v>
+        <v>57</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
       <c r="AK4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
+          <t>Fixation count</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>714.65</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>2436.53</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>3613.71</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>6239.28</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>4653.67</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
-        <v>80013.17999999999</v>
+        <v>240</v>
       </c>
       <c r="J5" t="n">
-        <v>4222.58</v>
+        <v>11</v>
       </c>
       <c r="K5" t="n">
-        <v>14512.31</v>
+        <v>32</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>1299.29</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>2436.53</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>40809.77</v>
+        <v>137</v>
       </c>
       <c r="P5" t="n">
-        <v>3768.24</v>
+        <v>9</v>
       </c>
       <c r="Q5" t="n">
-        <v>4596.13</v>
+        <v>10</v>
       </c>
       <c r="R5" t="n">
-        <v>714.65</v>
+        <v>2</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>9306.690000000001</v>
+        <v>24</v>
       </c>
       <c r="U5" t="n">
-        <v>23518</v>
+        <v>45</v>
       </c>
       <c r="V5" t="n">
-        <v>1737.81</v>
+        <v>8</v>
       </c>
       <c r="W5" t="n">
-        <v>1033.01</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>1429.44</v>
+        <v>3</v>
       </c>
       <c r="Y5" t="n">
-        <v>2679.84</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>15300.03</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>15721.87</v>
+        <v>33</v>
       </c>
       <c r="AC5" t="n">
-        <v>503.41</v>
+        <v>2</v>
       </c>
       <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>2</v>
+      </c>
       <c r="AF5" t="n">
-        <v>112412.86</v>
+        <v>269</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>893.27</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
+      <c r="AJ5" t="n">
+        <v>1</v>
+      </c>
       <c r="AK5" t="n">
-        <v>3955.32</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="n">
-        <v>2411.98</v>
+        <v>4</v>
       </c>
       <c r="AN5" t="n">
-        <v>10037.72</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>16518.36</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
-        <v>2614.64</v>
+        <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6155.77</v>
+        <v>11</v>
       </c>
       <c r="AR5" t="n">
-        <v>6042.11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
+          <t>Dwell time (ms)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.22</v>
+        <v>714.65</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.75</v>
+        <v>2436.53</v>
       </c>
       <c r="F6" t="n">
-        <v>1.11</v>
+        <v>3613.71</v>
       </c>
       <c r="G6" t="n">
-        <v>1.92</v>
+        <v>6139.22</v>
       </c>
       <c r="H6" t="n">
-        <v>1.43</v>
+        <v>5579.42</v>
       </c>
       <c r="I6" t="n">
-        <v>24.57</v>
+        <v>82485.58</v>
       </c>
       <c r="J6" t="n">
-        <v>1.3</v>
+        <v>4547.42</v>
       </c>
       <c r="K6" t="n">
-        <v>4.45</v>
+        <v>14512.31</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>0.4</v>
+        <v>1299.29</v>
       </c>
       <c r="N6" t="n">
-        <v>0.75</v>
+        <v>2436.53</v>
       </c>
       <c r="O6" t="n">
-        <v>36.4</v>
+        <v>40809.77</v>
       </c>
       <c r="P6" t="n">
-        <v>1.16</v>
+        <v>3768.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.41</v>
+        <v>4596.13</v>
       </c>
       <c r="R6" t="n">
-        <v>0.22</v>
+        <v>714.65</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>2.86</v>
+        <v>10232.44</v>
       </c>
       <c r="U6" t="n">
-        <v>7.22</v>
+        <v>22917.02</v>
       </c>
       <c r="V6" t="n">
-        <v>0.53</v>
+        <v>1737.81</v>
       </c>
       <c r="W6" t="n">
-        <v>0.32</v>
+        <v>665.9400000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>0.44</v>
+        <v>1429.44</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.82</v>
+        <v>3508.09</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>4.7</v>
+        <v>15300.03</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.83</v>
+        <v>15120.89</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.15</v>
+        <v>503.41</v>
       </c>
       <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>698.29</v>
+      </c>
       <c r="AF6" t="n">
-        <v>34.52</v>
+        <v>91181.08</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>0.27</v>
+        <v>893.27</v>
       </c>
       <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
+      <c r="AJ6" t="n">
+        <v>324.84</v>
+      </c>
       <c r="AK6" t="n">
-        <v>1.21</v>
+        <v>5011.02</v>
       </c>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="n">
-        <v>0.74</v>
+        <v>2411.98</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.08</v>
+        <v>10037.72</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.07</v>
+        <v>15917.39</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.8</v>
+        <v>2614.64</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.89</v>
+        <v>6155.77</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.85</v>
+        <v>6042.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
+          <t>Dwell time (%)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>357.32</v>
+        <v>0.31</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>487.31</v>
+        <v>1.06</v>
       </c>
       <c r="F7" t="n">
-        <v>602.28</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>311.96</v>
+        <v>2.67</v>
       </c>
       <c r="H7" t="n">
-        <v>387.81</v>
+        <v>2.42</v>
       </c>
       <c r="I7" t="n">
-        <v>339.04</v>
+        <v>35.83</v>
       </c>
       <c r="J7" t="n">
-        <v>422.26</v>
+        <v>1.98</v>
       </c>
       <c r="K7" t="n">
-        <v>453.51</v>
+        <v>6.3</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>216.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>487.31</v>
+        <v>1.06</v>
       </c>
       <c r="O7" t="n">
-        <v>297.88</v>
+        <v>36.4</v>
       </c>
       <c r="P7" t="n">
-        <v>418.69</v>
+        <v>1.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>459.61</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>357.32</v>
+        <v>0.31</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>404.64</v>
+        <v>4.44</v>
       </c>
       <c r="U7" t="n">
-        <v>522.62</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="V7" t="n">
-        <v>217.23</v>
+        <v>0.75</v>
       </c>
       <c r="W7" t="n">
-        <v>344.34</v>
+        <v>0.29</v>
       </c>
       <c r="X7" t="n">
-        <v>476.48</v>
+        <v>0.62</v>
       </c>
       <c r="Y7" t="n">
-        <v>334.98</v>
+        <v>1.52</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>527.59</v>
+        <v>6.65</v>
       </c>
       <c r="AB7" t="n">
-        <v>476.42</v>
+        <v>6.57</v>
       </c>
       <c r="AC7" t="n">
-        <v>251.71</v>
+        <v>0.22</v>
       </c>
       <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AF7" t="n">
-        <v>338.59</v>
+        <v>39.6</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>223.32</v>
+        <v>0.39</v>
       </c>
       <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+      <c r="AJ7" t="n">
+        <v>0.14</v>
+      </c>
       <c r="AK7" t="n">
-        <v>395.53</v>
+        <v>2.18</v>
       </c>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="n">
-        <v>602.99</v>
+        <v>1.05</v>
       </c>
       <c r="AN7" t="n">
-        <v>669.1799999999999</v>
+        <v>4.36</v>
       </c>
       <c r="AO7" t="n">
-        <v>611.79</v>
+        <v>6.91</v>
       </c>
       <c r="AP7" t="n">
-        <v>373.52</v>
+        <v>1.14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>559.62</v>
+        <v>2.67</v>
       </c>
       <c r="AR7" t="n">
-        <v>464.78</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>First fixation duration (ms)</t>
+          <t>Fixation duration (ms)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>324.84</v>
+        <v>357.32</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>308.59</v>
+        <v>487.31</v>
       </c>
       <c r="F8" t="n">
-        <v>276.15</v>
+        <v>602.28</v>
       </c>
       <c r="G8" t="n">
-        <v>308.54</v>
+        <v>323.12</v>
       </c>
       <c r="H8" t="n">
-        <v>341.06</v>
+        <v>429.19</v>
       </c>
       <c r="I8" t="n">
-        <v>146.14</v>
+        <v>343.69</v>
       </c>
       <c r="J8" t="n">
-        <v>341.06</v>
+        <v>413.4</v>
       </c>
       <c r="K8" t="n">
-        <v>81.23999999999999</v>
+        <v>453.51</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>568.4400000000001</v>
+        <v>216.55</v>
       </c>
       <c r="N8" t="n">
-        <v>308.59</v>
+        <v>487.31</v>
       </c>
       <c r="O8" t="n">
-        <v>284.88</v>
+        <v>297.88</v>
       </c>
       <c r="P8" t="n">
-        <v>308.54</v>
+        <v>418.69</v>
       </c>
       <c r="Q8" t="n">
-        <v>308.59</v>
+        <v>459.61</v>
       </c>
       <c r="R8" t="n">
-        <v>324.84</v>
+        <v>357.32</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>1039.49</v>
+        <v>426.35</v>
       </c>
       <c r="U8" t="n">
-        <v>1283.12</v>
+        <v>509.27</v>
       </c>
       <c r="V8" t="n">
-        <v>146.17</v>
+        <v>217.23</v>
       </c>
       <c r="W8" t="n">
-        <v>276.14</v>
+        <v>332.97</v>
       </c>
       <c r="X8" t="n">
-        <v>730.88</v>
+        <v>476.48</v>
       </c>
       <c r="Y8" t="n">
-        <v>97.45999999999999</v>
+        <v>350.81</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>81.23999999999999</v>
+        <v>527.59</v>
       </c>
       <c r="AB8" t="n">
-        <v>1283.12</v>
+        <v>458.21</v>
       </c>
       <c r="AC8" t="n">
-        <v>308.54</v>
+        <v>251.71</v>
       </c>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
+      <c r="AE8" t="n">
+        <v>349.14</v>
+      </c>
       <c r="AF8" t="n">
-        <v>211.11</v>
+        <v>338.96</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>568.4400000000001</v>
+        <v>223.32</v>
       </c>
       <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AJ8" t="n">
+        <v>324.84</v>
+      </c>
       <c r="AK8" t="n">
-        <v>341.06</v>
+        <v>417.59</v>
       </c>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="n">
-        <v>259.86</v>
+        <v>602.99</v>
       </c>
       <c r="AN8" t="n">
-        <v>292.3</v>
+        <v>669.1799999999999</v>
       </c>
       <c r="AO8" t="n">
-        <v>1283.12</v>
+        <v>612.21</v>
       </c>
       <c r="AP8" t="n">
-        <v>406.03</v>
+        <v>373.52</v>
       </c>
       <c r="AQ8" t="n">
-        <v>357.27</v>
+        <v>559.62</v>
       </c>
       <c r="AR8" t="n">
-        <v>406</v>
+        <v>464.78</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>324.84</v>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>308.59</v>
+      </c>
+      <c r="F9" t="n">
+        <v>276.15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>308.54</v>
+      </c>
+      <c r="H9" t="n">
+        <v>341.06</v>
+      </c>
+      <c r="I9" t="n">
+        <v>146.14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>341.06</v>
+      </c>
+      <c r="K9" t="n">
+        <v>81.23999999999999</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>568.4400000000001</v>
+      </c>
+      <c r="N9" t="n">
+        <v>308.59</v>
+      </c>
+      <c r="O9" t="n">
+        <v>284.88</v>
+      </c>
+      <c r="P9" t="n">
+        <v>308.54</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>308.59</v>
+      </c>
+      <c r="R9" t="n">
+        <v>324.84</v>
+      </c>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>1039.49</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1283.12</v>
+      </c>
+      <c r="V9" t="n">
+        <v>146.17</v>
+      </c>
+      <c r="W9" t="n">
+        <v>276.14</v>
+      </c>
+      <c r="X9" t="n">
+        <v>730.88</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>97.45999999999999</v>
+      </c>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>81.23999999999999</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1283.12</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>308.54</v>
+      </c>
       <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
+      <c r="AE9" t="n">
+        <v>503.4</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>211.11</v>
+      </c>
       <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
+      <c r="AH9" t="n">
+        <v>568.4400000000001</v>
+      </c>
       <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>324.84</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>341.06</v>
+      </c>
       <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
+      <c r="AM9" t="n">
+        <v>259.86</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>292.3</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1283.12</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>406.03</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>357.27</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>406</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
